--- a/Team-Data/2013-14/2-8-2013-14.xlsx
+++ b/Team-Data/2013-14/2-8-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,25 +733,25 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" t="n">
         <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G2" t="n">
-        <v>0.51</v>
+        <v>0.521</v>
       </c>
       <c r="H2" t="n">
         <v>48.5</v>
       </c>
       <c r="I2" t="n">
-        <v>38</v>
+        <v>38.2</v>
       </c>
       <c r="J2" t="n">
-        <v>82.59999999999999</v>
+        <v>82.8</v>
       </c>
       <c r="K2" t="n">
         <v>0.461</v>
@@ -693,37 +760,37 @@
         <v>9.300000000000001</v>
       </c>
       <c r="M2" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="N2" t="n">
-        <v>0.373</v>
+        <v>0.372</v>
       </c>
       <c r="O2" t="n">
-        <v>16.7</v>
+        <v>16.9</v>
       </c>
       <c r="P2" t="n">
-        <v>21.4</v>
+        <v>21.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.78</v>
+        <v>0.784</v>
       </c>
       <c r="R2" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="S2" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="T2" t="n">
-        <v>40.9</v>
+        <v>40.8</v>
       </c>
       <c r="U2" t="n">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="V2" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="W2" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="X2" t="n">
         <v>4.4</v>
@@ -732,19 +799,19 @@
         <v>4.6</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="AA2" t="n">
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.1</v>
+        <v>102.7</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AE2" t="n">
         <v>13</v>
@@ -753,22 +820,22 @@
         <v>12</v>
       </c>
       <c r="AG2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI2" t="n">
         <v>13</v>
       </c>
-      <c r="AH2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>14</v>
-      </c>
       <c r="AJ2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK2" t="n">
         <v>7</v>
       </c>
       <c r="AL2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM2" t="n">
         <v>3</v>
@@ -777,19 +844,19 @@
         <v>8</v>
       </c>
       <c r="AO2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR2" t="n">
         <v>27</v>
       </c>
       <c r="AS2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT2" t="n">
         <v>26</v>
@@ -810,10 +877,10 @@
         <v>15</v>
       </c>
       <c r="AZ2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB2" t="n">
         <v>12</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-8-2013-14</t>
+          <t>2014-02-08</t>
         </is>
       </c>
     </row>
@@ -944,7 +1011,7 @@
         <v>24</v>
       </c>
       <c r="AJ3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK3" t="n">
         <v>25</v>
@@ -959,7 +1026,7 @@
         <v>28</v>
       </c>
       <c r="AO3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP3" t="n">
         <v>26</v>
@@ -971,7 +1038,7 @@
         <v>14</v>
       </c>
       <c r="AS3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT3" t="n">
         <v>15</v>
@@ -980,13 +1047,13 @@
         <v>26</v>
       </c>
       <c r="AV3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY3" t="n">
         <v>13</v>
@@ -995,7 +1062,7 @@
         <v>19</v>
       </c>
       <c r="BA3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BB3" t="n">
         <v>26</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-8-2013-14</t>
+          <t>2014-02-08</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-2.7</v>
       </c>
       <c r="AD4" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AE4" t="n">
         <v>18</v>
@@ -1123,13 +1190,13 @@
         <v>7</v>
       </c>
       <c r="AI4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ4" t="n">
         <v>29</v>
       </c>
       <c r="AK4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL4" t="n">
         <v>14</v>
@@ -1138,7 +1205,7 @@
         <v>15</v>
       </c>
       <c r="AN4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO4" t="n">
         <v>8</v>
@@ -1159,7 +1226,7 @@
         <v>29</v>
       </c>
       <c r="AU4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-8-2013-14</t>
+          <t>2014-02-08</t>
         </is>
       </c>
     </row>
@@ -1212,25 +1279,25 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E5" t="n">
         <v>22</v>
       </c>
       <c r="F5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G5" t="n">
-        <v>0.431</v>
+        <v>0.44</v>
       </c>
       <c r="H5" t="n">
         <v>48.4</v>
       </c>
       <c r="I5" t="n">
-        <v>35.4</v>
+        <v>35.3</v>
       </c>
       <c r="J5" t="n">
-        <v>81.40000000000001</v>
+        <v>81.2</v>
       </c>
       <c r="K5" t="n">
         <v>0.435</v>
@@ -1248,28 +1315,28 @@
         <v>18.2</v>
       </c>
       <c r="P5" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="Q5" t="n">
         <v>0.728</v>
       </c>
       <c r="R5" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="S5" t="n">
         <v>33</v>
       </c>
       <c r="T5" t="n">
-        <v>42.1</v>
+        <v>42</v>
       </c>
       <c r="U5" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V5" t="n">
         <v>12.8</v>
       </c>
       <c r="W5" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="X5" t="n">
         <v>5</v>
@@ -1281,16 +1348,16 @@
         <v>18.4</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AB5" t="n">
-        <v>94.5</v>
+        <v>94.3</v>
       </c>
       <c r="AC5" t="n">
         <v>-2.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
         <v>18</v>
@@ -1302,13 +1369,13 @@
         <v>20</v>
       </c>
       <c r="AH5" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AI5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK5" t="n">
         <v>27</v>
@@ -1329,7 +1396,7 @@
         <v>7</v>
       </c>
       <c r="AQ5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR5" t="n">
         <v>28</v>
@@ -1338,10 +1405,10 @@
         <v>8</v>
       </c>
       <c r="AT5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AU5" t="n">
         <v>22</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>23</v>
       </c>
       <c r="AV5" t="n">
         <v>1</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-8-2013-14</t>
+          <t>2014-02-08</t>
         </is>
       </c>
     </row>
@@ -1472,16 +1539,16 @@
         <v>-0.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AE6" t="n">
         <v>14</v>
       </c>
       <c r="AF6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH6" t="n">
         <v>2</v>
@@ -1505,7 +1572,7 @@
         <v>27</v>
       </c>
       <c r="AO6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP6" t="n">
         <v>13</v>
@@ -1526,7 +1593,7 @@
         <v>13</v>
       </c>
       <c r="AV6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW6" t="n">
         <v>21</v>
@@ -1541,7 +1608,7 @@
         <v>6</v>
       </c>
       <c r="BA6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB6" t="n">
         <v>30</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-8-2013-14</t>
+          <t>2014-02-08</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>-6.1</v>
       </c>
       <c r="AD7" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AE7" t="n">
         <v>25</v>
@@ -1687,7 +1754,7 @@
         <v>17</v>
       </c>
       <c r="AO7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP7" t="n">
         <v>19</v>
@@ -1711,7 +1778,7 @@
         <v>11</v>
       </c>
       <c r="AW7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX7" t="n">
         <v>29</v>
@@ -1723,7 +1790,7 @@
         <v>12</v>
       </c>
       <c r="BA7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BB7" t="n">
         <v>23</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-8-2013-14</t>
+          <t>2014-02-08</t>
         </is>
       </c>
     </row>
@@ -1842,10 +1909,10 @@
         <v>8</v>
       </c>
       <c r="AF8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH8" t="n">
         <v>28</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-8-2013-14</t>
+          <t>2014-02-08</t>
         </is>
       </c>
     </row>
@@ -1940,64 +2007,64 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E9" t="n">
         <v>24</v>
       </c>
       <c r="F9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G9" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="H9" t="n">
         <v>48</v>
       </c>
       <c r="I9" t="n">
-        <v>38.3</v>
+        <v>38.2</v>
       </c>
       <c r="J9" t="n">
-        <v>84.7</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="K9" t="n">
         <v>0.452</v>
       </c>
       <c r="L9" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M9" t="n">
-        <v>23</v>
+        <v>22.8</v>
       </c>
       <c r="N9" t="n">
-        <v>0.363</v>
+        <v>0.361</v>
       </c>
       <c r="O9" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="P9" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.728</v>
+        <v>0.731</v>
       </c>
       <c r="R9" t="n">
         <v>12.1</v>
       </c>
       <c r="S9" t="n">
-        <v>33.3</v>
+        <v>33.4</v>
       </c>
       <c r="T9" t="n">
-        <v>45.5</v>
+        <v>45.4</v>
       </c>
       <c r="U9" t="n">
         <v>22.2</v>
       </c>
       <c r="V9" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="W9" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X9" t="n">
         <v>5.8</v>
@@ -2006,25 +2073,25 @@
         <v>5.4</v>
       </c>
       <c r="Z9" t="n">
-        <v>22.6</v>
+        <v>22.8</v>
       </c>
       <c r="AA9" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AB9" t="n">
-        <v>103.8</v>
+        <v>103.7</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AE9" t="n">
         <v>14</v>
       </c>
       <c r="AF9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG9" t="n">
         <v>14</v>
@@ -2033,7 +2100,7 @@
         <v>30</v>
       </c>
       <c r="AI9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ9" t="n">
         <v>7</v>
@@ -2042,31 +2109,31 @@
         <v>13</v>
       </c>
       <c r="AL9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AN9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO9" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AP9" t="n">
         <v>6</v>
       </c>
       <c r="AQ9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS9" t="n">
         <v>7</v>
       </c>
       <c r="AT9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU9" t="n">
         <v>12</v>
@@ -2075,7 +2142,7 @@
         <v>22</v>
       </c>
       <c r="AW9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX9" t="n">
         <v>4</v>
@@ -2087,13 +2154,13 @@
         <v>28</v>
       </c>
       <c r="BA9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB9" t="n">
         <v>10</v>
       </c>
       <c r="BC9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-8-2013-14</t>
+          <t>2014-02-08</t>
         </is>
       </c>
     </row>
@@ -2122,37 +2189,37 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" t="n">
         <v>29</v>
       </c>
       <c r="G10" t="n">
-        <v>0.42</v>
+        <v>0.408</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>38.6</v>
+        <v>38.4</v>
       </c>
       <c r="J10" t="n">
-        <v>86</v>
+        <v>85.7</v>
       </c>
       <c r="K10" t="n">
-        <v>0.45</v>
+        <v>0.448</v>
       </c>
       <c r="L10" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="M10" t="n">
         <v>19.4</v>
       </c>
       <c r="N10" t="n">
-        <v>0.312</v>
+        <v>0.31</v>
       </c>
       <c r="O10" t="n">
         <v>17.3</v>
@@ -2161,22 +2228,22 @@
         <v>26</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.666</v>
+        <v>0.664</v>
       </c>
       <c r="R10" t="n">
         <v>14.6</v>
       </c>
       <c r="S10" t="n">
-        <v>30.5</v>
+        <v>30.6</v>
       </c>
       <c r="T10" t="n">
-        <v>45.1</v>
+        <v>45.2</v>
       </c>
       <c r="U10" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="V10" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="W10" t="n">
         <v>8.9</v>
@@ -2191,28 +2258,28 @@
         <v>20.4</v>
       </c>
       <c r="AA10" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB10" t="n">
-        <v>100.6</v>
+        <v>100.1</v>
       </c>
       <c r="AC10" t="n">
-        <v>-2.2</v>
+        <v>-2.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AE10" t="n">
         <v>21</v>
       </c>
       <c r="AF10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG10" t="n">
         <v>21</v>
       </c>
       <c r="AH10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI10" t="n">
         <v>9</v>
@@ -2221,13 +2288,13 @@
         <v>4</v>
       </c>
       <c r="AK10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL10" t="n">
         <v>26</v>
       </c>
       <c r="AM10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AN10" t="n">
         <v>30</v>
@@ -2245,16 +2312,16 @@
         <v>1</v>
       </c>
       <c r="AS10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT10" t="n">
         <v>7</v>
       </c>
       <c r="AU10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AV10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW10" t="n">
         <v>5</v>
@@ -2269,7 +2336,7 @@
         <v>14</v>
       </c>
       <c r="BA10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB10" t="n">
         <v>16</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-8-2013-14</t>
+          <t>2014-02-08</t>
         </is>
       </c>
     </row>
@@ -2304,94 +2371,94 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E11" t="n">
         <v>30</v>
       </c>
       <c r="F11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G11" t="n">
-        <v>0.588</v>
+        <v>0.6</v>
       </c>
       <c r="H11" t="n">
         <v>48.3</v>
       </c>
       <c r="I11" t="n">
-        <v>38.9</v>
+        <v>38.8</v>
       </c>
       <c r="J11" t="n">
         <v>84.90000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L11" t="n">
         <v>9.300000000000001</v>
       </c>
       <c r="M11" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="N11" t="n">
-        <v>0.381</v>
+        <v>0.382</v>
       </c>
       <c r="O11" t="n">
         <v>16</v>
       </c>
       <c r="P11" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.737</v>
+        <v>0.738</v>
       </c>
       <c r="R11" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="S11" t="n">
-        <v>34.5</v>
+        <v>34.7</v>
       </c>
       <c r="T11" t="n">
-        <v>45.7</v>
+        <v>46</v>
       </c>
       <c r="U11" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="V11" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="W11" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="X11" t="n">
         <v>5.1</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z11" t="n">
         <v>22</v>
       </c>
       <c r="AA11" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AB11" t="n">
-        <v>103.1</v>
+        <v>102.9</v>
       </c>
       <c r="AC11" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="AD11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
       </c>
       <c r="AF11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH11" t="n">
         <v>19</v>
@@ -2403,22 +2470,22 @@
         <v>6</v>
       </c>
       <c r="AK11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM11" t="n">
         <v>6</v>
       </c>
       <c r="AN11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AO11" t="n">
         <v>25</v>
       </c>
       <c r="AP11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ11" t="n">
         <v>23</v>
@@ -2430,7 +2497,7 @@
         <v>2</v>
       </c>
       <c r="AT11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU11" t="n">
         <v>10</v>
@@ -2442,16 +2509,16 @@
         <v>14</v>
       </c>
       <c r="AX11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY11" t="n">
         <v>11</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>10</v>
       </c>
       <c r="AZ11" t="n">
         <v>24</v>
       </c>
       <c r="BA11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BB11" t="n">
         <v>11</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-8-2013-14</t>
+          <t>2014-02-08</t>
         </is>
       </c>
     </row>
@@ -2486,25 +2553,25 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E12" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F12" t="n">
         <v>17</v>
       </c>
       <c r="G12" t="n">
-        <v>0.667</v>
+        <v>0.66</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
       </c>
       <c r="I12" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="J12" t="n">
-        <v>79</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="K12" t="n">
         <v>0.473</v>
@@ -2519,31 +2586,31 @@
         <v>0.347</v>
       </c>
       <c r="O12" t="n">
-        <v>21.5</v>
+        <v>21.8</v>
       </c>
       <c r="P12" t="n">
-        <v>31.2</v>
+        <v>31.6</v>
       </c>
       <c r="Q12" t="n">
         <v>0.6889999999999999</v>
       </c>
       <c r="R12" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="S12" t="n">
-        <v>33.8</v>
+        <v>33.9</v>
       </c>
       <c r="T12" t="n">
-        <v>44.7</v>
+        <v>44.9</v>
       </c>
       <c r="U12" t="n">
         <v>20.3</v>
       </c>
       <c r="V12" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="W12" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X12" t="n">
         <v>5.8</v>
@@ -2552,19 +2619,19 @@
         <v>5.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA12" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
       <c r="AB12" t="n">
-        <v>105.3</v>
+        <v>105.4</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE12" t="n">
         <v>7</v>
@@ -2573,7 +2640,7 @@
         <v>6</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH12" t="n">
         <v>19</v>
@@ -2597,7 +2664,7 @@
         <v>23</v>
       </c>
       <c r="AO12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP12" t="n">
         <v>1</v>
@@ -2606,7 +2673,7 @@
         <v>29</v>
       </c>
       <c r="AR12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS12" t="n">
         <v>4</v>
@@ -2621,7 +2688,7 @@
         <v>28</v>
       </c>
       <c r="AW12" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AX12" t="n">
         <v>3</v>
@@ -2639,7 +2706,7 @@
         <v>4</v>
       </c>
       <c r="BC12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-8-2013-14</t>
+          <t>2014-02-08</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>8.1</v>
       </c>
       <c r="AD13" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AE13" t="n">
         <v>2</v>
@@ -2758,7 +2825,7 @@
         <v>1</v>
       </c>
       <c r="AH13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI13" t="n">
         <v>20</v>
@@ -2785,7 +2852,7 @@
         <v>13</v>
       </c>
       <c r="AQ13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR13" t="n">
         <v>22</v>
@@ -2797,10 +2864,10 @@
         <v>5</v>
       </c>
       <c r="AU13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW13" t="n">
         <v>24</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-8-2013-14</t>
+          <t>2014-02-08</t>
         </is>
       </c>
     </row>
@@ -2931,13 +2998,13 @@
         <v>1</v>
       </c>
       <c r="AE14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF14" t="n">
         <v>7</v>
       </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH14" t="n">
         <v>22</v>
@@ -2961,7 +3028,7 @@
         <v>24</v>
       </c>
       <c r="AO14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP14" t="n">
         <v>2</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-8-2013-14</t>
+          <t>2014-02-08</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-4.9</v>
       </c>
       <c r="AD15" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AE15" t="n">
         <v>23</v>
@@ -3146,10 +3213,10 @@
         <v>16</v>
       </c>
       <c r="AP15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR15" t="n">
         <v>24</v>
@@ -3158,13 +3225,13 @@
         <v>11</v>
       </c>
       <c r="AT15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU15" t="n">
         <v>9</v>
       </c>
       <c r="AV15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW15" t="n">
         <v>28</v>
@@ -3173,7 +3240,7 @@
         <v>6</v>
       </c>
       <c r="AY15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ15" t="n">
         <v>13</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-8-2013-14</t>
+          <t>2014-02-08</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F16" t="n">
         <v>22</v>
       </c>
       <c r="G16" t="n">
-        <v>0.551</v>
+        <v>0.542</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
@@ -3232,10 +3299,10 @@
         <v>37.6</v>
       </c>
       <c r="J16" t="n">
-        <v>82.3</v>
+        <v>82.2</v>
       </c>
       <c r="K16" t="n">
-        <v>0.456</v>
+        <v>0.457</v>
       </c>
       <c r="L16" t="n">
         <v>5</v>
@@ -3247,52 +3314,52 @@
         <v>0.35</v>
       </c>
       <c r="O16" t="n">
-        <v>15.1</v>
+        <v>15.4</v>
       </c>
       <c r="P16" t="n">
-        <v>20.2</v>
+        <v>20.6</v>
       </c>
       <c r="Q16" t="n">
         <v>0.747</v>
       </c>
       <c r="R16" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S16" t="n">
         <v>30.8</v>
       </c>
       <c r="T16" t="n">
-        <v>42.6</v>
+        <v>42.7</v>
       </c>
       <c r="U16" t="n">
         <v>21.6</v>
       </c>
       <c r="V16" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="W16" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X16" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z16" t="n">
-        <v>19.5</v>
+        <v>19.7</v>
       </c>
       <c r="AA16" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="AB16" t="n">
-        <v>95.2</v>
+        <v>95.5</v>
       </c>
       <c r="AC16" t="n">
         <v>0.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AE16" t="n">
         <v>11</v>
@@ -3310,7 +3377,7 @@
         <v>16</v>
       </c>
       <c r="AJ16" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AK16" t="n">
         <v>10</v>
@@ -3322,10 +3389,10 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO16" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AP16" t="n">
         <v>27</v>
@@ -3349,7 +3416,7 @@
         <v>3</v>
       </c>
       <c r="AW16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX16" t="n">
         <v>19</v>
@@ -3361,13 +3428,13 @@
         <v>7</v>
       </c>
       <c r="BA16" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="BB16" t="n">
         <v>25</v>
       </c>
       <c r="BC16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-8-2013-14</t>
+          <t>2014-02-08</t>
         </is>
       </c>
     </row>
@@ -3396,61 +3463,61 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E17" t="n">
         <v>35</v>
       </c>
       <c r="F17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G17" t="n">
-        <v>0.714</v>
+        <v>0.729</v>
       </c>
       <c r="H17" t="n">
         <v>48.5</v>
       </c>
       <c r="I17" t="n">
-        <v>38.9</v>
+        <v>39.1</v>
       </c>
       <c r="J17" t="n">
-        <v>76.7</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>0.508</v>
+        <v>0.509</v>
       </c>
       <c r="L17" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="M17" t="n">
         <v>21.8</v>
       </c>
       <c r="N17" t="n">
-        <v>0.369</v>
+        <v>0.371</v>
       </c>
       <c r="O17" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="P17" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.759</v>
+        <v>0.758</v>
       </c>
       <c r="R17" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="S17" t="n">
         <v>29.4</v>
       </c>
       <c r="T17" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="U17" t="n">
         <v>23.6</v>
       </c>
       <c r="V17" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W17" t="n">
         <v>9.1</v>
@@ -3462,34 +3529,34 @@
         <v>3</v>
       </c>
       <c r="Z17" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AA17" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AB17" t="n">
-        <v>104</v>
+        <v>104.3</v>
       </c>
       <c r="AC17" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AE17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF17" t="n">
         <v>3</v>
       </c>
       <c r="AG17" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI17" t="n">
         <v>4</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>5</v>
       </c>
       <c r="AJ17" t="n">
         <v>30</v>
@@ -3498,22 +3565,22 @@
         <v>1</v>
       </c>
       <c r="AL17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM17" t="n">
         <v>14</v>
       </c>
       <c r="AN17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP17" t="n">
         <v>12</v>
       </c>
       <c r="AQ17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR17" t="n">
         <v>30</v>
@@ -3528,13 +3595,13 @@
         <v>5</v>
       </c>
       <c r="AV17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW17" t="n">
         <v>1</v>
       </c>
       <c r="AX17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY17" t="n">
         <v>1</v>
@@ -3543,7 +3610,7 @@
         <v>11</v>
       </c>
       <c r="BA17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB17" t="n">
         <v>8</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-8-2013-14</t>
+          <t>2014-02-08</t>
         </is>
       </c>
     </row>
@@ -3578,43 +3645,43 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
       </c>
       <c r="F18" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G18" t="n">
-        <v>0.18</v>
+        <v>0.184</v>
       </c>
       <c r="H18" t="n">
         <v>48.7</v>
       </c>
       <c r="I18" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="J18" t="n">
-        <v>83</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K18" t="n">
         <v>0.421</v>
       </c>
       <c r="L18" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="M18" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="N18" t="n">
-        <v>0.351</v>
+        <v>0.35</v>
       </c>
       <c r="O18" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="P18" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="Q18" t="n">
         <v>0.754</v>
@@ -3623,13 +3690,13 @@
         <v>11.6</v>
       </c>
       <c r="S18" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="T18" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="U18" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V18" t="n">
         <v>15.5</v>
@@ -3647,16 +3714,16 @@
         <v>21</v>
       </c>
       <c r="AA18" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AB18" t="n">
-        <v>92.3</v>
+        <v>92.2</v>
       </c>
       <c r="AC18" t="n">
-        <v>-9.5</v>
+        <v>-9.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3674,7 +3741,7 @@
         <v>29</v>
       </c>
       <c r="AJ18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK18" t="n">
         <v>30</v>
@@ -3686,10 +3753,10 @@
         <v>16</v>
       </c>
       <c r="AN18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AP18" t="n">
         <v>28</v>
@@ -3707,7 +3774,7 @@
         <v>25</v>
       </c>
       <c r="AU18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AV18" t="n">
         <v>23</v>
@@ -3722,10 +3789,10 @@
         <v>19</v>
       </c>
       <c r="AZ18" t="n">
+        <v>18</v>
+      </c>
+      <c r="BA18" t="n">
         <v>17</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>18</v>
       </c>
       <c r="BB18" t="n">
         <v>29</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-8-2013-14</t>
+          <t>2014-02-08</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E19" t="n">
         <v>24</v>
       </c>
       <c r="F19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G19" t="n">
-        <v>0.471</v>
+        <v>0.48</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
@@ -3778,46 +3845,46 @@
         <v>38.4</v>
       </c>
       <c r="J19" t="n">
-        <v>88</v>
+        <v>87.8</v>
       </c>
       <c r="K19" t="n">
-        <v>0.436</v>
+        <v>0.437</v>
       </c>
       <c r="L19" t="n">
         <v>7.5</v>
       </c>
       <c r="M19" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="N19" t="n">
-        <v>0.343</v>
+        <v>0.344</v>
       </c>
       <c r="O19" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="P19" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.783</v>
+        <v>0.784</v>
       </c>
       <c r="R19" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="S19" t="n">
         <v>33</v>
       </c>
       <c r="T19" t="n">
-        <v>45.9</v>
+        <v>45.8</v>
       </c>
       <c r="U19" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="V19" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="W19" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X19" t="n">
         <v>3.6</v>
@@ -3826,25 +3893,25 @@
         <v>5.8</v>
       </c>
       <c r="Z19" t="n">
-        <v>17.9</v>
+        <v>17.7</v>
       </c>
       <c r="AA19" t="n">
-        <v>23.1</v>
+        <v>22.9</v>
       </c>
       <c r="AB19" t="n">
-        <v>105.6</v>
+        <v>105.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="AD19" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE19" t="n">
         <v>14</v>
       </c>
       <c r="AF19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG19" t="n">
         <v>17</v>
@@ -3880,16 +3947,16 @@
         <v>4</v>
       </c>
       <c r="AR19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS19" t="n">
         <v>9</v>
       </c>
       <c r="AT19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV19" t="n">
         <v>7</v>
@@ -3901,7 +3968,7 @@
         <v>30</v>
       </c>
       <c r="AY19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ19" t="n">
         <v>1</v>
@@ -3913,7 +3980,7 @@
         <v>3</v>
       </c>
       <c r="BC19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-8-2013-14</t>
+          <t>2014-02-08</t>
         </is>
       </c>
     </row>
@@ -4020,13 +4087,13 @@
         <v>-1.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AE20" t="n">
         <v>18</v>
       </c>
       <c r="AF20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG20" t="n">
         <v>19</v>
@@ -4035,7 +4102,7 @@
         <v>11</v>
       </c>
       <c r="AI20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ20" t="n">
         <v>11</v>
@@ -4050,7 +4117,7 @@
         <v>29</v>
       </c>
       <c r="AN20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AO20" t="n">
         <v>15</v>
@@ -4059,7 +4126,7 @@
         <v>18</v>
       </c>
       <c r="AQ20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR20" t="n">
         <v>5</v>
@@ -4089,7 +4156,7 @@
         <v>27</v>
       </c>
       <c r="BA20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB20" t="n">
         <v>17</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-8-2013-14</t>
+          <t>2014-02-08</t>
         </is>
       </c>
     </row>
@@ -4202,10 +4269,10 @@
         <v>-1.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AE21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF21" t="n">
         <v>22</v>
@@ -4220,7 +4287,7 @@
         <v>21</v>
       </c>
       <c r="AJ21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK21" t="n">
         <v>19</v>
@@ -4232,7 +4299,7 @@
         <v>7</v>
       </c>
       <c r="AN21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO21" t="n">
         <v>30</v>
@@ -4241,7 +4308,7 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR21" t="n">
         <v>20</v>
@@ -4262,7 +4329,7 @@
         <v>13</v>
       </c>
       <c r="AX21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY21" t="n">
         <v>4</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-8-2013-14</t>
+          <t>2014-02-08</t>
         </is>
       </c>
     </row>
@@ -4399,10 +4466,10 @@
         <v>26</v>
       </c>
       <c r="AI22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ22" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK22" t="n">
         <v>3</v>
@@ -4453,10 +4520,10 @@
         <v>21</v>
       </c>
       <c r="BA22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC22" t="n">
         <v>2</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-8-2013-14</t>
+          <t>2014-02-08</t>
         </is>
       </c>
     </row>
@@ -4584,7 +4651,7 @@
         <v>22</v>
       </c>
       <c r="AJ23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK23" t="n">
         <v>21</v>
@@ -4602,7 +4669,7 @@
         <v>22</v>
       </c>
       <c r="AP23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ23" t="n">
         <v>14</v>
@@ -4614,7 +4681,7 @@
         <v>12</v>
       </c>
       <c r="AT23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU23" t="n">
         <v>20</v>
@@ -4635,7 +4702,7 @@
         <v>8</v>
       </c>
       <c r="BA23" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BB23" t="n">
         <v>24</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-8-2013-14</t>
+          <t>2014-02-08</t>
         </is>
       </c>
     </row>
@@ -4766,7 +4833,7 @@
         <v>7</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK24" t="n">
         <v>22</v>
@@ -4796,7 +4863,7 @@
         <v>10</v>
       </c>
       <c r="AT24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU24" t="n">
         <v>11</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-8-2013-14</t>
+          <t>2014-02-08</t>
         </is>
       </c>
     </row>
@@ -4852,46 +4919,46 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E25" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F25" t="n">
         <v>20</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6</v>
+        <v>0.592</v>
       </c>
       <c r="H25" t="n">
         <v>48.2</v>
       </c>
       <c r="I25" t="n">
-        <v>38.7</v>
+        <v>38.6</v>
       </c>
       <c r="J25" t="n">
         <v>84.40000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>0.459</v>
+        <v>0.457</v>
       </c>
       <c r="L25" t="n">
         <v>9.300000000000001</v>
       </c>
       <c r="M25" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="N25" t="n">
-        <v>0.369</v>
+        <v>0.366</v>
       </c>
       <c r="O25" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="P25" t="n">
-        <v>24.1</v>
+        <v>23.9</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.762</v>
+        <v>0.76</v>
       </c>
       <c r="R25" t="n">
         <v>11.6</v>
@@ -4900,13 +4967,13 @@
         <v>31.8</v>
       </c>
       <c r="T25" t="n">
-        <v>43.5</v>
+        <v>43.4</v>
       </c>
       <c r="U25" t="n">
         <v>19.1</v>
       </c>
       <c r="V25" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W25" t="n">
         <v>8.300000000000001</v>
@@ -4924,22 +4991,22 @@
         <v>21.1</v>
       </c>
       <c r="AB25" t="n">
-        <v>105.1</v>
+        <v>104.7</v>
       </c>
       <c r="AC25" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="AD25" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AE25" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AF25" t="n">
         <v>8</v>
       </c>
       <c r="AG25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH25" t="n">
         <v>23</v>
@@ -4951,16 +5018,16 @@
         <v>9</v>
       </c>
       <c r="AK25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM25" t="n">
         <v>2</v>
       </c>
       <c r="AN25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO25" t="n">
         <v>11</v>
@@ -5002,7 +5069,7 @@
         <v>10</v>
       </c>
       <c r="BB25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-8-2013-14</t>
+          <t>2014-02-08</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E26" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F26" t="n">
         <v>15</v>
       </c>
       <c r="G26" t="n">
-        <v>0.706</v>
+        <v>0.7</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
@@ -5052,10 +5119,10 @@
         <v>39.8</v>
       </c>
       <c r="J26" t="n">
-        <v>88.09999999999999</v>
+        <v>88.2</v>
       </c>
       <c r="K26" t="n">
-        <v>0.452</v>
+        <v>0.451</v>
       </c>
       <c r="L26" t="n">
         <v>9.4</v>
@@ -5064,22 +5131,22 @@
         <v>24.6</v>
       </c>
       <c r="N26" t="n">
-        <v>0.381</v>
+        <v>0.382</v>
       </c>
       <c r="O26" t="n">
-        <v>19</v>
+        <v>18.8</v>
       </c>
       <c r="P26" t="n">
-        <v>23.2</v>
+        <v>22.9</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="R26" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="S26" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="T26" t="n">
         <v>46.5</v>
@@ -5091,28 +5158,28 @@
         <v>13.7</v>
       </c>
       <c r="W26" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="X26" t="n">
         <v>4.7</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Z26" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="AA26" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AB26" t="n">
-        <v>108</v>
+        <v>107.8</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE26" t="n">
         <v>4</v>
@@ -5124,13 +5191,13 @@
         <v>5</v>
       </c>
       <c r="AH26" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AI26" t="n">
         <v>2</v>
       </c>
       <c r="AJ26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK26" t="n">
         <v>14</v>
@@ -5145,16 +5212,16 @@
         <v>3</v>
       </c>
       <c r="AO26" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AP26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ26" t="n">
         <v>1</v>
       </c>
       <c r="AR26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS26" t="n">
         <v>5</v>
@@ -5172,13 +5239,13 @@
         <v>30</v>
       </c>
       <c r="AX26" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AY26" t="n">
         <v>5</v>
       </c>
       <c r="AZ26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA26" t="n">
         <v>16</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-8-2013-14</t>
+          <t>2014-02-08</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-2.1</v>
       </c>
       <c r="AD27" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
@@ -5318,7 +5385,7 @@
         <v>18</v>
       </c>
       <c r="AL27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM27" t="n">
         <v>24</v>
@@ -5351,13 +5418,13 @@
         <v>14</v>
       </c>
       <c r="AW27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX27" t="n">
         <v>28</v>
       </c>
       <c r="AY27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ27" t="n">
         <v>30</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-8-2013-14</t>
+          <t>2014-02-08</t>
         </is>
       </c>
     </row>
@@ -5398,28 +5465,28 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E28" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F28" t="n">
         <v>14</v>
       </c>
       <c r="G28" t="n">
-        <v>0.725</v>
+        <v>0.72</v>
       </c>
       <c r="H28" t="n">
         <v>48.3</v>
       </c>
       <c r="I28" t="n">
-        <v>40.2</v>
+        <v>40.3</v>
       </c>
       <c r="J28" t="n">
-        <v>82.09999999999999</v>
+        <v>82.2</v>
       </c>
       <c r="K28" t="n">
-        <v>0.489</v>
+        <v>0.49</v>
       </c>
       <c r="L28" t="n">
         <v>8.1</v>
@@ -5431,19 +5498,19 @@
         <v>0.393</v>
       </c>
       <c r="O28" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="P28" t="n">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.773</v>
+        <v>0.77</v>
       </c>
       <c r="R28" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="S28" t="n">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="T28" t="n">
         <v>42.4</v>
@@ -5461,10 +5528,10 @@
         <v>5.1</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="AA28" t="n">
         <v>19.5</v>
@@ -5473,19 +5540,19 @@
         <v>103.9</v>
       </c>
       <c r="AC28" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE28" t="n">
         <v>3</v>
       </c>
       <c r="AF28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH28" t="n">
         <v>19</v>
@@ -5494,13 +5561,13 @@
         <v>1</v>
       </c>
       <c r="AJ28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
       </c>
       <c r="AL28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM28" t="n">
         <v>17</v>
@@ -5509,13 +5576,13 @@
         <v>1</v>
       </c>
       <c r="AO28" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AP28" t="n">
         <v>29</v>
       </c>
       <c r="AQ28" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AR28" t="n">
         <v>29</v>
@@ -5533,7 +5600,7 @@
         <v>12</v>
       </c>
       <c r="AW28" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX28" t="n">
         <v>10</v>
@@ -5545,7 +5612,7 @@
         <v>2</v>
       </c>
       <c r="BA28" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB28" t="n">
         <v>9</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-8-2013-14</t>
+          <t>2014-02-08</t>
         </is>
       </c>
     </row>
@@ -5658,16 +5725,16 @@
         <v>2.3</v>
       </c>
       <c r="AD29" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF29" t="n">
         <v>13</v>
       </c>
-      <c r="AE29" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>12</v>
-      </c>
       <c r="AG29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH29" t="n">
         <v>10</v>
@@ -5682,13 +5749,13 @@
         <v>24</v>
       </c>
       <c r="AL29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AN29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO29" t="n">
         <v>7</v>
@@ -5697,10 +5764,10 @@
         <v>9</v>
       </c>
       <c r="AQ29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS29" t="n">
         <v>20</v>
@@ -5709,7 +5776,7 @@
         <v>13</v>
       </c>
       <c r="AU29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV29" t="n">
         <v>9</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-8-2013-14</t>
+          <t>2014-02-08</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F30" t="n">
         <v>33</v>
       </c>
       <c r="G30" t="n">
-        <v>0.34</v>
+        <v>0.327</v>
       </c>
       <c r="H30" t="n">
         <v>48.2</v>
@@ -5780,31 +5847,31 @@
         <v>35.6</v>
       </c>
       <c r="J30" t="n">
-        <v>81.09999999999999</v>
+        <v>81.3</v>
       </c>
       <c r="K30" t="n">
-        <v>0.439</v>
+        <v>0.438</v>
       </c>
       <c r="L30" t="n">
         <v>6.7</v>
       </c>
       <c r="M30" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="N30" t="n">
-        <v>0.353</v>
+        <v>0.352</v>
       </c>
       <c r="O30" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="P30" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.748</v>
+        <v>0.75</v>
       </c>
       <c r="R30" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="S30" t="n">
         <v>30.5</v>
@@ -5822,34 +5889,34 @@
         <v>6.8</v>
       </c>
       <c r="X30" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y30" t="n">
         <v>4.8</v>
       </c>
       <c r="Z30" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AA30" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB30" t="n">
         <v>94.09999999999999</v>
       </c>
       <c r="AC30" t="n">
-        <v>-6.6</v>
+        <v>-6.8</v>
       </c>
       <c r="AD30" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AE30" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AF30" t="n">
         <v>24</v>
       </c>
       <c r="AG30" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AH30" t="n">
         <v>23</v>
@@ -5858,13 +5925,13 @@
         <v>26</v>
       </c>
       <c r="AJ30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK30" t="n">
         <v>23</v>
       </c>
       <c r="AL30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM30" t="n">
         <v>26</v>
@@ -5873,19 +5940,19 @@
         <v>16</v>
       </c>
       <c r="AO30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>18</v>
+      </c>
+      <c r="AS30" t="n">
         <v>24</v>
-      </c>
-      <c r="AP30" t="n">
-        <v>22</v>
-      </c>
-      <c r="AQ30" t="n">
-        <v>20</v>
-      </c>
-      <c r="AR30" t="n">
-        <v>17</v>
-      </c>
-      <c r="AS30" t="n">
-        <v>23</v>
       </c>
       <c r="AT30" t="n">
         <v>24</v>
@@ -5900,13 +5967,13 @@
         <v>27</v>
       </c>
       <c r="AX30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY30" t="n">
         <v>17</v>
       </c>
       <c r="AZ30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA30" t="n">
         <v>14</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-8-2013-14</t>
+          <t>2014-02-08</t>
         </is>
       </c>
     </row>
@@ -6022,16 +6089,16 @@
         <v>-0.3</v>
       </c>
       <c r="AD31" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AE31" t="n">
         <v>14</v>
       </c>
       <c r="AF31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH31" t="n">
         <v>1</v>
@@ -6073,7 +6140,7 @@
         <v>17</v>
       </c>
       <c r="AU31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV31" t="n">
         <v>16</v>
@@ -6082,7 +6149,7 @@
         <v>7</v>
       </c>
       <c r="AX31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY31" t="n">
         <v>7</v>
@@ -6091,7 +6158,7 @@
         <v>15</v>
       </c>
       <c r="BA31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB31" t="n">
         <v>18</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-8-2013-14</t>
+          <t>2014-02-08</t>
         </is>
       </c>
     </row>
